--- a/biology/Botanique/Acianthera/Acianthera.xlsx
+++ b/biology/Botanique/Acianthera/Acianthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acianthera est un genre de la famille des Orchidaceae. Il était autrefois rattaché au genre Pleurothallis.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centranthera Scheidw. in Otto &amp; Dietr. Allg. Gartenz. x. (1842)
 Pleurothallis subg. Acianthera (Scheidw.) Luer, Monogr. Syst. Bot. Missouri Bot. Gard. 20: 12 (1986)</t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du sud, principalement au Brésil.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste partielle d'espèces [1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acianthera acuminatipetala (A.Samp.) Luer, Monogr. Syst. Bot. Missouri Bot. Gard. 95: 253. 2004
 Acianthera adamantinensis (Brade) F.Barros, Bradea 8(43): 294 (2002).
